--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/085_MultiTableMultiChartCommonSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/085_MultiTableMultiChartCommonSheet.xlsx
@@ -5,10 +5,10 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="R6287f29d49104f25"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="R0242d8e846b845cd"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="R8d524b1e83b64630"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="R3304ef865e634d57"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="R0b359e59ebcc4c9a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="R8870296648a8452b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="R534c83f346d04e3b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="Ra5385a95cd654cf2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -654,7 +654,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R46cdf2de3a67451a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6cc8a4bd419c4077"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -684,7 +684,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2e7df52d5ae54b07"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4f8b11acd5484356"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -714,7 +714,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R08592eb3b5484830"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R58110e203a304b60"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -744,7 +744,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re1dd501ecfda4035"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb5b2213e27be4574"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1167,6 +1167,6 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R95c83b3db3ff425d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1f13dee5c63648f2"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/085_MultiTableMultiChartCommonSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/085_MultiTableMultiChartCommonSheet.xlsx
@@ -5,10 +5,10 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="R0b359e59ebcc4c9a"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="R8870296648a8452b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="R534c83f346d04e3b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="Ra5385a95cd654cf2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="R8648d832b1be44a9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="R46401d3c07014dfc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="R37dd7e7fa55c498e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="R5c8a1060729640cd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -654,7 +654,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6cc8a4bd419c4077"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcef56e6009434910"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -684,7 +684,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4f8b11acd5484356"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfd38f89128a147fa"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -714,7 +714,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R58110e203a304b60"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2c6a6d6547e64553"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -744,7 +744,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb5b2213e27be4574"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R62e54e08812a4a58"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1167,6 +1167,6 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1f13dee5c63648f2"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R421f24cf44334b6c"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/085_MultiTableMultiChartCommonSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/085_MultiTableMultiChartCommonSheet.xlsx
@@ -5,10 +5,10 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="R8648d832b1be44a9"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="R46401d3c07014dfc"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="R37dd7e7fa55c498e"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="R5c8a1060729640cd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="R7156a8290db2401a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="R6b092c18858948b4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="R4679a07610584e8b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="Rdeedd38a29f64dda"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -654,7 +654,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcef56e6009434910"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R38b724c09db34758"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -684,7 +684,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfd38f89128a147fa"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R41d13af768db4376"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -714,7 +714,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2c6a6d6547e64553"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Raa3711bfa3f94ac0"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -744,7 +744,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R62e54e08812a4a58"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R024ef5fee8a74c28"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1167,6 +1167,6 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R421f24cf44334b6c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb27f9808bdb64688"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/085_MultiTableMultiChartCommonSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/085_MultiTableMultiChartCommonSheet.xlsx
@@ -5,10 +5,10 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="R7156a8290db2401a"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="R6b092c18858948b4"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="R4679a07610584e8b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="Rdeedd38a29f64dda"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="R01ba0c0e27a8407a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="R77376e32610044c1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="R17f02b3fb5a1479b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="Ra2ef861fd50d4f05"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -654,7 +654,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R38b724c09db34758"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcaf4bb83bb1e4f00"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -684,7 +684,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R41d13af768db4376"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re13b76acb19a4adc"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -714,7 +714,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Raa3711bfa3f94ac0"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R78798ca771d8405f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -744,7 +744,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R024ef5fee8a74c28"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2ef692cc8e2346db"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1167,6 +1167,6 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb27f9808bdb64688"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R97a44d820ece42b1"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/085_MultiTableMultiChartCommonSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/085_MultiTableMultiChartCommonSheet.xlsx
@@ -5,10 +5,10 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="R01ba0c0e27a8407a"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="R77376e32610044c1"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="R17f02b3fb5a1479b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="Ra2ef861fd50d4f05"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="R7c813219d95248ba"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="R6a641520e79341aa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="R9dfc520403394d81"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="Recd61b9e42f04296"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -654,7 +654,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcaf4bb83bb1e4f00"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc7b01a01e62c451e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -684,7 +684,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re13b76acb19a4adc"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R819a9d600c504da1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -714,7 +714,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R78798ca771d8405f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R62f5556bed6f4a38"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -744,7 +744,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2ef692cc8e2346db"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rac5fba9cc41f46e4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1167,6 +1167,6 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R97a44d820ece42b1"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2724cf223ec140fc"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/085_MultiTableMultiChartCommonSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/085_MultiTableMultiChartCommonSheet.xlsx
@@ -5,10 +5,10 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="R7c813219d95248ba"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="R6a641520e79341aa"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="R9dfc520403394d81"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="Recd61b9e42f04296"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="R0910ef2915de42ec"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="R94287faf1d404a2d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="R2ac60b6fe3fc4c0f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="R22b955d6a153484d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -654,7 +654,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc7b01a01e62c451e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0cbd896cbe144741"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -684,7 +684,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R819a9d600c504da1"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf311650ed3af403d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -714,7 +714,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R62f5556bed6f4a38"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8df01433c88f4983"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -744,7 +744,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rac5fba9cc41f46e4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1d3ff15a4f5848d2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1167,6 +1167,6 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2724cf223ec140fc"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R056b5a3cce424272"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/085_MultiTableMultiChartCommonSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/085_MultiTableMultiChartCommonSheet.xlsx
@@ -5,10 +5,10 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="R0910ef2915de42ec"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="R94287faf1d404a2d"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="R2ac60b6fe3fc4c0f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="R22b955d6a153484d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="R22e4d6e4352f4cd6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="Rbbf97d4af5f24fc5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="R3077b92aeb1b4ca9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="Red53d6edb6204e35"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -654,7 +654,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0cbd896cbe144741"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R444f0584c0574dcd"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -684,7 +684,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf311650ed3af403d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1939bef78a7146b9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -714,7 +714,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8df01433c88f4983"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7684784be83641d0"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -744,7 +744,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1d3ff15a4f5848d2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R068aa2f9164a4903"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1167,6 +1167,6 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R056b5a3cce424272"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R724e2dbae83c4edc"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/085_MultiTableMultiChartCommonSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/085_MultiTableMultiChartCommonSheet.xlsx
@@ -5,10 +5,10 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="R22e4d6e4352f4cd6"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="Rbbf97d4af5f24fc5"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="R3077b92aeb1b4ca9"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="Red53d6edb6204e35"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="R1b3e329ec72b4c10"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="R24351e039f3b4aae"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="Rd47860a131f2473b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="R63a2caced9ab4e36"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -654,7 +654,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R444f0584c0574dcd"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re2d5e8cd27dc4385"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -684,7 +684,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1939bef78a7146b9"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R725ec79712344447"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -714,7 +714,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7684784be83641d0"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7173e48cebf14ccb"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -744,7 +744,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R068aa2f9164a4903"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rec68fc1ee033452b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1167,6 +1167,6 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R724e2dbae83c4edc"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R78a5ce03ab8e4590"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/085_MultiTableMultiChartCommonSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/085_MultiTableMultiChartCommonSheet.xlsx
@@ -5,10 +5,10 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="R1b3e329ec72b4c10"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="R24351e039f3b4aae"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="Rd47860a131f2473b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="R63a2caced9ab4e36"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="R23d0e7f0175340ea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="R5466494281d14bd9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="Rf97bdba8951e4fd8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="R0c4d9a5671a74cd8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -654,7 +654,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re2d5e8cd27dc4385"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra563d8f9aa354d76"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -684,7 +684,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R725ec79712344447"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9f2e5d3bca7d4bd1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -714,7 +714,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7173e48cebf14ccb"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd5c25900de794796"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -744,7 +744,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rec68fc1ee033452b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1c3657bbf9334855"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1167,6 +1167,6 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R78a5ce03ab8e4590"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra90259cf1b9b4328"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/085_MultiTableMultiChartCommonSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/085_MultiTableMultiChartCommonSheet.xlsx
@@ -5,10 +5,10 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="R23d0e7f0175340ea"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="R5466494281d14bd9"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="Rf97bdba8951e4fd8"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="R0c4d9a5671a74cd8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="R445e5e5206b04c22"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="R3c54daa5ea7a44fc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="R718fabb21ebc431a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="R1b8795e84e504fd4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -654,7 +654,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra563d8f9aa354d76"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4e3794342d934601"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -684,7 +684,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9f2e5d3bca7d4bd1"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rac27106f03b64246"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -714,7 +714,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd5c25900de794796"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re55b106656724def"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -744,7 +744,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1c3657bbf9334855"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9ed6eb1fbdbe462a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1167,6 +1167,6 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra90259cf1b9b4328"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6369b0ab01ae484c"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/085_MultiTableMultiChartCommonSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/085_MultiTableMultiChartCommonSheet.xlsx
@@ -5,10 +5,10 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="R445e5e5206b04c22"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="R3c54daa5ea7a44fc"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="R718fabb21ebc431a"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="R1b8795e84e504fd4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="R7d63b226083043e8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="R6ad4c79b36914d30"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="R41cc5ee5286749b8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="R1e7cd0d336f24058"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -33,17 +33,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">
@@ -654,7 +654,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4e3794342d934601"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9f84ded15a484aea"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -684,7 +684,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rac27106f03b64246"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R55f20f1a5c4c43c6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -714,7 +714,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re55b106656724def"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R310e76a517ed47df"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -744,7 +744,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9ed6eb1fbdbe462a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5f93c44e54104bb7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1167,6 +1167,6 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6369b0ab01ae484c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0422fdcd7ff24f3a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/085_MultiTableMultiChartCommonSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/085_MultiTableMultiChartCommonSheet.xlsx
@@ -5,10 +5,10 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="R7d63b226083043e8"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="R6ad4c79b36914d30"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="R41cc5ee5286749b8"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="R1e7cd0d336f24058"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="R94440329cf444047"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="R629bbfffdb5a4f44"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="R8254237af0f54707"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="R214ef885a23447ac"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -33,17 +33,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">
@@ -654,7 +654,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9f84ded15a484aea"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R754979fdc320442c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -684,7 +684,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R55f20f1a5c4c43c6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd07254459faf44ea"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -714,7 +714,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R310e76a517ed47df"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re43ac989a33d49ad"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -744,7 +744,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5f93c44e54104bb7"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdf14e970588641a8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1167,6 +1167,6 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0422fdcd7ff24f3a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R42139694fae34f96"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/085_MultiTableMultiChartCommonSheet.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/085_MultiTableMultiChartCommonSheet.xlsx
@@ -5,10 +5,10 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="R94440329cf444047"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="R629bbfffdb5a4f44"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="R8254237af0f54707"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="R214ef885a23447ac"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SalesData" sheetId="1" r:id="Re674d3ddc24f48a3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Expenses" sheetId="2" r:id="R527d3b60135a40b3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget" sheetId="3" r:id="Rd98b17af145d4f12"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dashboard" sheetId="4" r:id="R0f16ede4c6214b18"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -654,7 +654,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R754979fdc320442c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re7d6809dd75e4b68"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -684,7 +684,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd07254459faf44ea"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rffc7fe4149034818"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -714,7 +714,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re43ac989a33d49ad"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0b6cc123e99340f6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -744,7 +744,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdf14e970588641a8"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R328f5d741e654bbd"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1167,6 +1167,6 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R42139694fae34f96"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R049374efc2594516"/>
 </x:worksheet>
 </file>